--- a/back/dsKltn.xlsx
+++ b/back/dsKltn.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>type</t>
   </si>
@@ -28,10 +28,10 @@
     <t>subject-nvcl</t>
   </si>
   <si>
-    <t>gv05</t>
-  </si>
-  <si>
-    <t>sv05</t>
+    <t>gv02</t>
+  </si>
+  <si>
+    <t>sv01</t>
   </si>
   <si>
     <t>CLC</t>
@@ -40,7 +40,7 @@
     <t>gv06</t>
   </si>
   <si>
-    <t>sv06</t>
+    <t>sv02</t>
   </si>
   <si>
     <t>62CH</t>
@@ -49,19 +49,16 @@
     <t>gv03</t>
   </si>
   <si>
-    <t>sv07</t>
+    <t>sv03</t>
   </si>
   <si>
     <t>62CK</t>
   </si>
   <si>
-    <t>gv08</t>
-  </si>
-  <si>
-    <t>sv08</t>
-  </si>
-  <si>
-    <t>sv09</t>
+    <t>gv04</t>
+  </si>
+  <si>
+    <t>sv04</t>
   </si>
 </sst>
 </file>
@@ -363,10 +360,10 @@
       <c r="A2" s="3">
         <v>0.0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -383,7 +380,7 @@
       <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -400,7 +397,7 @@
       <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -414,10 +411,10 @@
       <c r="A5" s="3">
         <v>0.0</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -427,23 +424,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="3">
-        <v>1.0</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
+    <row r="6" ht="15.75" customHeight="1"/>
     <row r="7" ht="15.75" customHeight="1"/>
     <row r="8" ht="15.75" customHeight="1"/>
     <row r="9" ht="15.75" customHeight="1"/>
@@ -1433,7 +1414,6 @@
     <row r="993" ht="15.75" customHeight="1"/>
     <row r="994" ht="15.75" customHeight="1"/>
     <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
